--- a/dev_res/data/数值.xlsx
+++ b/dev_res/data/数值.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\dev_res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godot Projects\minidayz\dev_res\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB12B8F-CCAB-457D-B555-E3B0FA54C2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{674AC181-9BDA-43FC-BA27-EF5D4ECD79F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{94B643B6-7569-406B-AD43-B8AE076E39CC}"/>
   </bookViews>
   <sheets>
     <sheet name="背包物品" sheetId="9" r:id="rId1"/>
     <sheet name="状态物品" sheetId="10" r:id="rId2"/>
     <sheet name="工具" sheetId="11" r:id="rId3"/>
-    <sheet name="便携武器" sheetId="13" r:id="rId4"/>
-    <sheet name="近战武器" sheetId="4" r:id="rId5"/>
-    <sheet name="远程武器" sheetId="7" r:id="rId6"/>
-    <sheet name="穿戴物品" sheetId="12" r:id="rId7"/>
+    <sheet name="近战武器" sheetId="4" r:id="rId4"/>
+    <sheet name="远程武器" sheetId="7" r:id="rId5"/>
+    <sheet name="穿戴物品" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="背包物品_1" localSheetId="0">背包物品!$A$1:$E$48</definedName>
@@ -30,14 +29,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,15 +76,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="443">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>runPenalty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stackable</t>
   </si>
   <si>
@@ -128,9 +115,6 @@
   </si>
   <si>
     <t>reload_time</t>
-  </si>
-  <si>
-    <t>fire_rate</t>
   </si>
   <si>
     <t>AK-74</t>
@@ -1480,6 +1464,14 @@
   </si>
   <si>
     <t>res://asset/images/equipment/weapon/melee/hunter_knife.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_penalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1744,61 +1736,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2749061</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>98285</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC1113C-F03D-48AA-9CFA-6CADB13BEB6F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="809625"/>
-          <a:ext cx="3911111" cy="1117460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1850,7 +1787,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1911,7 +1848,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>328179</xdr:colOff>
+      <xdr:colOff>137679</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2287,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2304,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2321,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2338,10 +2275,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2355,10 +2292,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2372,10 +2309,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2389,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2406,10 +2343,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2423,10 +2360,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -2440,10 +2377,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2457,10 +2394,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -2474,10 +2411,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -2491,10 +2428,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -2508,10 +2445,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2526,10 +2463,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -2543,10 +2480,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -2560,10 +2497,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2577,10 +2514,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2594,10 +2531,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2611,10 +2548,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2628,10 +2565,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2645,10 +2582,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2662,10 +2599,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2679,10 +2616,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -2696,10 +2633,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2713,10 +2650,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2730,10 +2667,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2747,10 +2684,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2764,10 +2701,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2781,10 +2718,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2798,10 +2735,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -2815,10 +2752,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -2832,10 +2769,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -2849,10 +2786,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -2866,10 +2803,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
@@ -2883,10 +2820,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2900,10 +2837,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2917,10 +2854,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2934,10 +2871,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -2951,10 +2888,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2968,10 +2905,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -2985,10 +2922,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -3002,10 +2939,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -3019,10 +2956,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -3036,10 +2973,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -3053,10 +2990,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -3070,10 +3007,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -3087,10 +3024,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -3133,28 +3070,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3162,10 +3099,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3191,10 +3128,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3220,10 +3157,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3249,10 +3186,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3278,10 +3215,10 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3307,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3336,10 +3273,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3365,10 +3302,10 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3394,10 +3331,10 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3423,10 +3360,10 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3452,10 +3389,10 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3481,10 +3418,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -3510,10 +3447,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -3539,10 +3476,10 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -3568,10 +3505,10 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -3597,10 +3534,10 @@
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -3626,10 +3563,10 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3655,10 +3592,10 @@
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -3684,10 +3621,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -3713,10 +3650,10 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3742,10 +3679,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -3771,10 +3708,10 @@
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3800,10 +3737,10 @@
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3829,10 +3766,10 @@
         <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3858,10 +3795,10 @@
         <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -3887,10 +3824,10 @@
         <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -3916,10 +3853,10 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3945,10 +3882,10 @@
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3974,10 +3911,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -4003,10 +3940,10 @@
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -4032,10 +3969,10 @@
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -4061,10 +3998,10 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D33" s="2">
         <v>0</v>
@@ -4090,10 +4027,10 @@
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -4119,10 +4056,10 @@
         <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -4148,10 +4085,10 @@
         <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -4177,10 +4114,10 @@
         <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -4206,10 +4143,10 @@
         <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D38" s="2">
         <v>0</v>
@@ -4235,10 +4172,10 @@
         <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4270,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBC20ED-B8B2-4E40-A4AE-E441357E4E69}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4288,13 +4225,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4302,10 +4239,10 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -4316,10 +4253,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -4330,10 +4267,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
@@ -4344,10 +4281,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D5" s="2">
         <v>20</v>
@@ -4358,10 +4295,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -4372,10 +4309,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
@@ -4386,10 +4323,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
@@ -4400,10 +4337,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -4414,13 +4351,13 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4428,13 +4365,13 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4445,166 +4382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24F552C-E915-4D47-857F-1334B84CB08A}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A58FF1-4D6B-48BF-A4C3-32B4DD813447}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4625,31 +4407,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4657,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D2" s="1">
         <v>0.2</v>
@@ -4689,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="D3" s="1">
         <v>0.2</v>
@@ -4721,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
@@ -4753,10 +4535,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
@@ -4781,14 +4563,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D6" s="1">
         <v>0.3</v>
@@ -4817,10 +4596,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D7" s="1">
         <v>0.2</v>
@@ -4849,10 +4628,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D8" s="1">
         <v>0.3</v>
@@ -4881,10 +4660,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D9" s="1">
         <v>0.3</v>
@@ -4913,10 +4692,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D10" s="1">
         <v>0.3</v>
@@ -4945,10 +4724,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D11" s="1">
         <v>0.1</v>
@@ -4977,10 +4756,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D12" s="1">
         <v>0.3</v>
@@ -5002,6 +4781,102 @@
       </c>
       <c r="J12" s="1">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -5012,12 +4887,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4129E3EC-201A-4968-8528-D5D8EA18EA4A}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="I1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -5028,8 +4903,7 @@
     <col min="4" max="4" width="13.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="2" bestFit="1" customWidth="1"/>
@@ -5046,49 +4920,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5096,10 +4970,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
@@ -5134,7 +5008,7 @@
         <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O2" s="2">
         <v>3</v>
@@ -5148,10 +5022,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>0.3</v>
@@ -5186,7 +5060,7 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O3" s="2">
         <v>3</v>
@@ -5200,10 +5074,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
         <v>0.3</v>
@@ -5238,7 +5112,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O4" s="2">
         <v>4</v>
@@ -5252,10 +5126,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
         <v>0.4</v>
@@ -5290,7 +5164,7 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O5" s="2">
         <v>3.5</v>
@@ -5304,10 +5178,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
         <v>0.3</v>
@@ -5342,7 +5216,7 @@
         <v>40</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O6" s="2">
         <v>4</v>
@@ -5356,10 +5230,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -5391,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
@@ -5405,10 +5279,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>0.8</v>
@@ -5443,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O8" s="2">
         <v>4</v>
@@ -5457,10 +5331,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>0.3</v>
@@ -5495,7 +5369,7 @@
         <v>20</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O9" s="2">
         <v>3</v>
@@ -5509,10 +5383,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2">
         <v>0.4</v>
@@ -5547,7 +5421,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O10" s="2">
         <v>3.5</v>
@@ -5561,10 +5435,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -5599,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O11" s="2">
         <v>4</v>
@@ -5613,10 +5487,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2">
         <v>0.4</v>
@@ -5651,7 +5525,7 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O12" s="2">
         <v>3</v>
@@ -5665,10 +5539,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2">
         <v>0.4</v>
@@ -5703,7 +5577,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O13" s="2">
         <v>3</v>
@@ -5717,10 +5591,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2">
         <v>0.5</v>
@@ -5755,7 +5629,7 @@
         <v>20</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O14" s="2">
         <v>4</v>
@@ -5769,10 +5643,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2">
         <v>0.8</v>
@@ -5807,7 +5681,7 @@
         <v>5</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O15" s="2">
         <v>2</v>
@@ -5821,10 +5695,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2">
         <v>0.3</v>
@@ -5859,7 +5733,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O16" s="2">
         <v>4</v>
@@ -5873,10 +5747,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2">
         <v>0.5</v>
@@ -5911,7 +5785,7 @@
         <v>6</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O17" s="2">
         <v>2</v>
@@ -5925,10 +5799,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2">
         <v>0.4</v>
@@ -5960,7 +5834,7 @@
         <v>7</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O18" s="2">
         <v>4</v>
@@ -5974,10 +5848,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2">
         <v>0.3</v>
@@ -6012,7 +5886,7 @@
         <v>40</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O19" s="2">
         <v>4</v>
@@ -6026,10 +5900,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>0.5</v>
@@ -6064,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O20" s="2">
         <v>2</v>
@@ -6078,10 +5952,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2">
         <v>0.5</v>
@@ -6113,7 +5987,7 @@
         <v>10</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O21" s="2">
         <v>4</v>
@@ -6127,10 +6001,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2">
         <v>0.4</v>
@@ -6162,7 +6036,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O22" s="2">
         <v>4</v>
@@ -6176,10 +6050,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2">
         <v>0.6</v>
@@ -6214,7 +6088,7 @@
         <v>10</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O23" s="2">
         <v>1.5</v>
@@ -6228,10 +6102,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2">
         <v>0.8</v>
@@ -6266,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O24" s="2">
         <v>1</v>
@@ -6280,10 +6154,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2">
         <v>0.3</v>
@@ -6318,7 +6192,7 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O25" s="2">
         <v>4</v>
@@ -6332,10 +6206,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2">
         <v>0.4</v>
@@ -6370,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O26" s="2">
         <v>3</v>
@@ -6384,10 +6258,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>0.8</v>
@@ -6422,7 +6296,7 @@
         <v>10</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O27" s="2">
         <v>8</v>
@@ -6436,10 +6310,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2">
         <v>0.8</v>
@@ -6474,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O28" s="2">
         <v>8</v>
@@ -6488,10 +6362,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2">
         <v>0.8</v>
@@ -6526,7 +6400,7 @@
         <v>15</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O29" s="2">
         <v>8</v>
@@ -6540,10 +6414,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2">
         <v>0.8</v>
@@ -6578,7 +6452,7 @@
         <v>18</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2">
         <v>8</v>
@@ -6592,10 +6466,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2">
         <v>0.8</v>
@@ -6630,7 +6504,7 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O31" s="2">
         <v>5</v>
@@ -6644,10 +6518,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2">
         <v>0.8</v>
@@ -6682,7 +6556,7 @@
         <v>6</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O32" s="2">
         <v>4</v>
@@ -6696,10 +6570,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2">
         <v>0.8</v>
@@ -6734,7 +6608,7 @@
         <v>8</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O33" s="2">
         <v>8</v>
@@ -6748,10 +6622,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2">
         <v>0.8</v>
@@ -6786,7 +6660,7 @@
         <v>8</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O34" s="2">
         <v>8</v>
@@ -6800,10 +6674,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2">
         <v>0.8</v>
@@ -6838,7 +6712,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O35" s="2">
         <v>8</v>
@@ -6852,10 +6726,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2">
         <v>0.8</v>
@@ -6887,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O36" s="2">
         <v>6</v>
@@ -6901,10 +6775,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
         <v>0.4</v>
@@ -6936,7 +6810,7 @@
         <v>7</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O37" s="2">
         <v>6</v>
@@ -6950,10 +6824,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
         <v>0.8</v>
@@ -6988,7 +6862,7 @@
         <v>5</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O38" s="2">
         <v>4</v>
@@ -7008,11 +6882,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032ED3F4-8AB3-4487-AD15-AD25197BD471}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -7034,22 +6908,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7057,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -7080,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -7103,10 +6977,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -7126,10 +7000,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -7149,10 +7023,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -7172,10 +7046,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -7195,10 +7069,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -7218,10 +7092,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -7241,10 +7115,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -7264,10 +7138,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -7287,10 +7161,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -7310,10 +7184,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -7333,10 +7207,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -7356,10 +7230,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -7379,10 +7253,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -7402,10 +7276,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -7425,10 +7299,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -7448,10 +7322,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -7471,10 +7345,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -7494,10 +7368,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -7517,10 +7391,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -7540,10 +7414,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -7563,10 +7437,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -7586,10 +7460,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -7609,10 +7483,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D26" s="3">
         <v>2</v>
@@ -7632,10 +7506,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
@@ -7655,10 +7529,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
@@ -7678,10 +7552,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
@@ -7701,10 +7575,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -7724,10 +7598,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
@@ -7747,10 +7621,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
@@ -7770,10 +7644,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -7793,10 +7667,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -7816,10 +7690,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -7839,10 +7713,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D36" s="3">
         <v>2</v>
@@ -7862,10 +7736,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D37" s="3">
         <v>2</v>
@@ -7885,10 +7759,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D38" s="3">
         <v>2</v>
@@ -7908,10 +7782,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -7931,10 +7805,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D40" s="3">
         <v>2</v>
@@ -7954,10 +7828,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
@@ -7977,10 +7851,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D42" s="3">
         <v>2</v>
@@ -8000,10 +7874,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D43" s="3">
         <v>2</v>
@@ -8023,10 +7897,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D44" s="3">
         <v>3</v>
@@ -8046,10 +7920,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D45" s="3">
         <v>3</v>
@@ -8069,10 +7943,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
@@ -8092,10 +7966,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D47" s="3">
         <v>3</v>
@@ -8115,10 +7989,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D48" s="3">
         <v>3</v>
@@ -8138,10 +8012,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D49" s="3">
         <v>3</v>
@@ -8155,10 +8029,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D50" s="3">
         <v>4</v>
@@ -8178,10 +8052,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
@@ -8201,10 +8075,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D52" s="3">
         <v>4</v>
@@ -8224,10 +8098,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D53" s="3">
         <v>4</v>
@@ -8247,10 +8121,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D54" s="3">
         <v>4</v>
@@ -8270,10 +8144,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D55" s="3">
         <v>4</v>
@@ -8293,10 +8167,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D56" s="3">
         <v>4</v>
@@ -8316,10 +8190,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
